--- a/locale/locale.xlsx
+++ b/locale/locale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\Desktop\FDrobot\mBlock\src\locale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-tom\fd_work\TuKuRut\TukurutchExe\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4330,12 +4330,6 @@
   </si>
   <si>
     <t>真ん中</t>
-  </si>
-  <si>
-    <t>ロボットをPC通信モードに設定</t>
-  </si>
-  <si>
-    <t>ロボットを最初のプログラムにもどす</t>
   </si>
   <si>
     <t>いいえ</t>
@@ -4540,17 +4534,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC modeプログラムを生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Open PC mode firmware</t>
   </si>
   <si>
     <t>Open Normal firmware</t>
-  </si>
-  <si>
-    <t>PC modeプログラムを開く</t>
   </si>
   <si>
     <t>最初のプログラムを開く</t>
@@ -4674,6 +4661,20 @@
   </si>
   <si>
     <t>このアプリはこのロボットをサポートしていません。正しいアプリをインストールして下さい：つくるっち</t>
+  </si>
+  <si>
+    <t>モニタプログラムを生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>モニタプログラムを開く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最初のプログラム書き込み</t>
+  </si>
+  <si>
+    <t>モニタプログラム書き込み</t>
   </si>
 </sst>
 </file>
@@ -6593,8 +6594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A780" workbookViewId="0">
-      <selection activeCell="B790" sqref="B790"/>
+    <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
+      <selection activeCell="B626" sqref="B626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4"/>
@@ -6621,7 +6622,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6629,7 +6630,7 @@
         <v>620</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6637,7 +6638,7 @@
         <v>421</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6645,7 +6646,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6653,7 +6654,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6661,7 +6662,7 @@
         <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6677,7 +6678,7 @@
         <v>653</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7213,7 +7214,7 @@
         <v>385</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7362,7 +7363,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>908</v>
@@ -8437,7 +8438,7 @@
         <v>122</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -8493,7 +8494,7 @@
         <v>139</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1438</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -9149,7 +9150,7 @@
         <v>404</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -10418,34 +10419,34 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B479" s="5" t="s">
         <v>1499</v>
-      </c>
-      <c r="B479" s="5" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B481" s="5" t="s">
         <v>1501</v>
-      </c>
-      <c r="B481" s="5" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -10845,7 +10846,7 @@
         <v>966</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -11037,7 +11038,7 @@
         <v>1020</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -11602,10 +11603,10 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1437</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -11725,7 +11726,7 @@
         <v>1222</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -12117,7 +12118,7 @@
         <v>1313</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -12125,7 +12126,7 @@
         <v>1314</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -12541,17 +12542,17 @@
         <v>1410</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="744" spans="1:2" s="9" customFormat="1">
       <c r="A744" s="9" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="745" spans="1:2" s="9" customFormat="1">
       <c r="A745" s="9" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="746" spans="1:2" s="9" customFormat="1">
@@ -12596,7 +12597,7 @@
     </row>
     <row r="751" spans="1:2" s="9" customFormat="1">
       <c r="A751" s="9" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B751" s="9" t="s">
         <v>1421</v>
@@ -12636,15 +12637,15 @@
     </row>
     <row r="756" spans="1:2" s="9" customFormat="1">
       <c r="A756" s="9" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B756" s="9" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="757" spans="1:2" s="9" customFormat="1">
       <c r="A757" s="9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B757" s="9" t="s">
         <v>1436</v>
@@ -12652,15 +12653,15 @@
     </row>
     <row r="758" spans="1:2" s="9" customFormat="1">
       <c r="A758" s="9" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="759" spans="1:2" s="9" customFormat="1">
       <c r="A759" s="9" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B759" s="9" t="s">
         <v>165</v>
@@ -12668,218 +12669,218 @@
     </row>
     <row r="760" spans="1:2" s="9" customFormat="1">
       <c r="A760" s="9" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B760" s="9" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="761" spans="1:2" s="9" customFormat="1">
       <c r="A761" s="9" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B761" s="9" t="s">
-        <v>1493</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="762" spans="1:2" s="9" customFormat="1">
       <c r="A762" s="9" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>1496</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="763" spans="1:2" s="9" customFormat="1">
       <c r="A763" s="9" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="764" spans="1:2" s="9" customFormat="1">
       <c r="A764" s="9" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B764" s="9" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="765" spans="1:2" s="9" customFormat="1">
       <c r="A765" s="9" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B765" s="9" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="766" spans="1:2" s="9" customFormat="1">
       <c r="A766" s="9" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B766" s="9" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="6" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B767" s="10" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="9" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B768" s="9" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="9" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B769" s="9" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="6" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B770" s="10" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="3" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B771" s="7" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="3" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B772" s="7" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="3" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B773" s="7" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="774" spans="1:2" s="9" customFormat="1">
       <c r="A774" s="9" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B774" s="9" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="775" spans="1:2" s="9" customFormat="1">
       <c r="A775" s="9" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B775" s="9" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="776" spans="1:2" s="9" customFormat="1">
       <c r="A776" s="9" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="B776" s="9" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="3" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B777" s="7" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B778" s="7" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="3" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B779" s="7" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B780" s="7" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="3" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B781" s="7" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B782" s="7" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="3" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="B783" s="7" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="3" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B784" s="11" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="6" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="B785" s="11" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="6" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B786" s="5" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -12892,26 +12893,26 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B788" s="7" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B789" s="7" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B790" s="5" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="791" spans="1:2">
